--- a/biology/Médecine/Pasteurelloses_(maladie_professionnelle)/Pasteurelloses_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Pasteurelloses_(maladie_professionnelle)/Pasteurelloses_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une pasteurellose peut être reconnue comme maladie professionnelle en France.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -514,13 +526,125 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Régime agricole
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pasteurelloses_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pasteurelloses_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La pasteurellose est une maladie infectieuse due à des germes du type Pasteurelle dont le plus fréquent en pathologie humaine est Pasteurella multocida,
-Données professionnelles
-Le plus souvent il s'agit d'une inoculation par morsure ou griffure de chien ou de chat (portage chez environ 40 à 50 % d'entre eux) ou d'autres animaux. Les professionnels de l'élevage et des abattoirs sont exposés au cours de leur travail.
-Données médicales
-Elle se manifeste par l'apparition en moins de 24 heures de douleurs très vives associées à un aspect local très inflammatoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pasteurelloses_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pasteurelloses_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plus souvent il s'agit d'une inoculation par morsure ou griffure de chien ou de chat (portage chez environ 40 à 50 % d'entre eux) ou d'autres animaux. Les professionnels de l'élevage et des abattoirs sont exposés au cours de leur travail.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pasteurelloses_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pasteurelloses_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se manifeste par l'apparition en moins de 24 heures de douleurs très vives associées à un aspect local très inflammatoire.
 Le traitement repose sur l'antibiothérapie (cyclines ou association amoxicilline-acide clavulanique)
 </t>
         </is>
